--- a/com.AutomationFramework/src/test/resources/ActitmeTestData.xlsx
+++ b/com.AutomationFramework/src/test/resources/ActitmeTestData.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSpiders\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QWASJFJVDA2\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidCred" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -36,6 +37,12 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Admin12358</t>
+  </si>
+  <si>
+    <t>Manager7896</t>
   </si>
 </sst>
 </file>
@@ -378,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,4 +410,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>